--- a/FIN 401/Week 3/FIN401 Day 8 - Exam Prep Spreadsheet.xlsx
+++ b/FIN 401/Week 3/FIN401 Day 8 - Exam Prep Spreadsheet.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savag\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bailey\Desktop\Spring-2022\FIN 401\Week 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DADE5C-632E-4C43-9161-156D7F195AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B918ACD-2A30-4EA4-AE21-D97B4AE7508C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratios Forecast WACC" sheetId="1" r:id="rId1"/>
     <sheet name="Capital Budgeting" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t>Total Revenue</t>
   </si>
@@ -284,6 +282,9 @@
   </si>
   <si>
     <t>S&amp;P</t>
+  </si>
+  <si>
+    <t>Leverage</t>
   </si>
 </sst>
 </file>
@@ -297,8 +298,8 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -480,14 +481,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -520,8 +520,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -541,6 +540,8 @@
     <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1328,10 +1329,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="O69" sqref="O69"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1388,7 @@
       <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <f>B30/B10</f>
         <v>8750</v>
       </c>
@@ -1407,7 +1408,7 @@
       <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <f t="shared" ref="B7:B8" si="0">B31/B11</f>
         <v>450</v>
       </c>
@@ -1427,7 +1428,7 @@
       <c r="A8" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <f t="shared" si="0"/>
         <v>4950</v>
       </c>
@@ -1522,7 +1523,7 @@
       <c r="A14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="34">
         <f>B35/B6</f>
         <v>175</v>
       </c>
@@ -1542,7 +1543,7 @@
       <c r="A15" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <f t="shared" ref="B15:B16" si="5">B36/B7</f>
         <v>155</v>
       </c>
@@ -1562,7 +1563,7 @@
       <c r="A16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <f t="shared" si="5"/>
         <v>180</v>
       </c>
@@ -1588,7 +1589,7 @@
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="32">
         <f>B61/(B33/365)</f>
         <v>38.707473975180854</v>
       </c>
@@ -1608,7 +1609,7 @@
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="32">
         <f>B62/(B38/365)</f>
         <v>91.929761235955056</v>
       </c>
@@ -1628,7 +1629,7 @@
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <f>B72/(B38/365)</f>
         <v>49.206159711075443</v>
       </c>
@@ -1656,10 +1657,10 @@
       <c r="B22" s="7">
         <v>0.08</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="35">
         <v>0.08</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="35">
         <v>0.08</v>
       </c>
       <c r="F22" s="21"/>
@@ -1671,10 +1672,10 @@
       <c r="B23" s="7">
         <v>0.23699999999999999</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="35">
         <v>0.255</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="35">
         <v>0.255</v>
       </c>
       <c r="F23" s="21"/>
@@ -1790,7 +1791,7 @@
         <v>4552553.25</v>
       </c>
       <c r="D33" s="13">
-        <f t="shared" ref="D33:E33" si="12">SUM(D30:D32)</f>
+        <f t="shared" ref="D33" si="12">SUM(D30:D32)</f>
         <v>4875784.5307500008</v>
       </c>
       <c r="E33" s="13"/>
@@ -1863,11 +1864,11 @@
       <c r="B38" s="5">
         <v>2492000</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="29">
         <f>SUM(C35:C37)</f>
         <v>2668932</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="29">
         <f>SUM(D35:D37)</f>
         <v>2858426.1720000003</v>
       </c>
@@ -1894,15 +1895,15 @@
       <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="81">
         <f>B39/B33</f>
         <v>0.41375051461506795</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="82">
         <f>C39/C33</f>
         <v>0.41375051461506795</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="82">
         <f>D39/D33</f>
         <v>0.41375051461506795</v>
       </c>
@@ -1969,16 +1970,14 @@
         <v>133484</v>
       </c>
       <c r="C45" s="24">
-        <f t="shared" ref="C45:D45" si="16">B45*(1+$F45)</f>
-        <v>133484</v>
+        <f>B45/B33*C33</f>
+        <v>142961.364</v>
       </c>
       <c r="D45" s="24">
-        <f t="shared" si="16"/>
-        <v>133484</v>
-      </c>
-      <c r="F45" s="20">
-        <v>0</v>
-      </c>
+        <f>C45/C33*D33</f>
+        <v>153111.62084400002</v>
+      </c>
+      <c r="F45" s="20"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1987,11 +1986,11 @@
       <c r="B46" s="5">
         <v>17455</v>
       </c>
-      <c r="C46" s="57">
+      <c r="C46" s="56">
         <f>B46+20000</f>
         <v>37455</v>
       </c>
-      <c r="D46" s="57">
+      <c r="D46" s="56">
         <f>C46+10000</f>
         <v>47455</v>
       </c>
@@ -2006,11 +2005,11 @@
       </c>
       <c r="C47" s="13">
         <f>SUM(C43:C46)</f>
-        <v>1437587.3800000001</v>
+        <v>1447064.7440000002</v>
       </c>
       <c r="D47" s="13">
         <f>SUM(D43:D46)</f>
-        <v>1481742.7876000002</v>
+        <v>1501370.4084440002</v>
       </c>
       <c r="F47" s="7"/>
     </row>
@@ -2030,11 +2029,11 @@
       </c>
       <c r="C49" s="13">
         <f>C39-C47</f>
-        <v>446033.86999999988</v>
+        <v>436556.50599999982</v>
       </c>
       <c r="D49" s="13">
         <f>D39-D47</f>
-        <v>535615.57115000044</v>
+        <v>515987.95030600042</v>
       </c>
       <c r="F49" s="7"/>
     </row>
@@ -2053,11 +2052,11 @@
       </c>
       <c r="C51" s="27">
         <f>C22*C76</f>
-        <v>16055.988306485084</v>
+        <v>34079.256347826115</v>
       </c>
       <c r="D51" s="27">
         <f>D22*D76</f>
-        <v>-7268.9122214513891</v>
+        <v>14283.665055402651</v>
       </c>
       <c r="F51" s="21"/>
     </row>
@@ -2069,12 +2068,12 @@
         <v>80281</v>
       </c>
       <c r="C52" s="19">
-        <f>C49*C23</f>
-        <v>113738.63684999997</v>
+        <f>(C49-C51)*C23</f>
+        <v>102631.6986613043</v>
       </c>
       <c r="D52" s="19">
-        <f>D49*D23</f>
-        <v>136581.97064325013</v>
+        <f>(D49-D51)*D23</f>
+        <v>127934.59273890243</v>
       </c>
       <c r="F52" s="21"/>
     </row>
@@ -2086,13 +2085,13 @@
         <f>B49-B51-B52</f>
         <v>258989</v>
       </c>
-      <c r="C53" s="32">
+      <c r="C53" s="31">
         <f>C49-C51-C52</f>
-        <v>316239.24484351487</v>
-      </c>
-      <c r="D53" s="32">
+        <v>299845.55099086941</v>
+      </c>
+      <c r="D53" s="31">
         <f>D49-D51-D52</f>
-        <v>406302.51272820169</v>
+        <v>373769.69251169532</v>
       </c>
       <c r="F53" s="7"/>
     </row>
@@ -2106,11 +2105,11 @@
       </c>
       <c r="C54" s="28">
         <f>C53/C33</f>
-        <v>6.9464150659526033E-2</v>
+        <v>6.5863161730369532E-2</v>
       </c>
       <c r="D54" s="28">
         <f>D53/D33</f>
-        <v>8.3330694817579154E-2</v>
+        <v>7.6658369572004337E-2</v>
       </c>
       <c r="F54" s="7"/>
     </row>
@@ -2203,12 +2202,12 @@
         <v>627641</v>
       </c>
       <c r="C62" s="19">
-        <f>C19*(C39/365)</f>
-        <v>474413.29252457869</v>
+        <f>C19*(C38/365)</f>
+        <v>672203.51099999994</v>
       </c>
       <c r="D62" s="19">
-        <f>D19*(D39/365)</f>
-        <v>508096.63629382389</v>
+        <f>D19*(D38/365)</f>
+        <v>719929.96028100001</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="7"/>
@@ -2222,11 +2221,11 @@
       </c>
       <c r="C63" s="13">
         <f>SUM(C60:C62)</f>
-        <v>1383444.1855245789</v>
+        <v>1581234.4040000001</v>
       </c>
       <c r="D63" s="13">
         <f>SUM(D60:D62)</f>
-        <v>1494029.749396824</v>
+        <v>1705863.0733840002</v>
       </c>
       <c r="F63" s="7"/>
     </row>
@@ -2242,11 +2241,11 @@
       <c r="B65" s="4">
         <v>427313</v>
       </c>
-      <c r="C65" s="58">
+      <c r="C65" s="57">
         <f>B65+200000</f>
         <v>627313</v>
       </c>
-      <c r="D65" s="58">
+      <c r="D65" s="57">
         <f>C65+100000</f>
         <v>727313</v>
       </c>
@@ -2258,11 +2257,11 @@
       <c r="B66" s="5">
         <v>-109243</v>
       </c>
-      <c r="C66" s="59">
+      <c r="C66" s="58">
         <f>B66-C46</f>
         <v>-146698</v>
       </c>
-      <c r="D66" s="59">
+      <c r="D66" s="58">
         <f>C66-D46</f>
         <v>-194153</v>
       </c>
@@ -2274,11 +2273,11 @@
       <c r="B67" s="4">
         <v>318070</v>
       </c>
-      <c r="C67" s="31">
+      <c r="C67" s="30">
         <f>C65+C66</f>
         <v>480615</v>
       </c>
-      <c r="D67" s="31">
+      <c r="D67" s="30">
         <f>D65+D66</f>
         <v>533160</v>
       </c>
@@ -2296,13 +2295,13 @@
       <c r="B69" s="6">
         <v>1783987</v>
       </c>
-      <c r="C69" s="32">
+      <c r="C69" s="31">
         <f>C63+C67</f>
-        <v>1864059.1855245789</v>
-      </c>
-      <c r="D69" s="32">
+        <v>2061849.4040000001</v>
+      </c>
+      <c r="D69" s="31">
         <f>D63+D67</f>
-        <v>2027189.749396824</v>
+        <v>2239023.073384</v>
       </c>
       <c r="F69" s="7"/>
     </row>
@@ -2320,19 +2319,19 @@
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="65" t="s">
+      <c r="G71" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="H71" s="65" t="s">
+      <c r="H71" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="I71" s="65" t="s">
+      <c r="I71" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="J71" s="65" t="s">
+      <c r="J71" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="K71" s="65" t="s">
+      <c r="K71" s="63" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2352,11 +2351,11 @@
         <v>385348.42395000003</v>
       </c>
       <c r="F72" s="21"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="66"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="66"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="J72" s="64"/>
+      <c r="K72" s="64"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -2367,18 +2366,18 @@
       </c>
       <c r="C73" s="19">
         <f>C52</f>
-        <v>113738.63684999997</v>
+        <v>102631.6986613043</v>
       </c>
       <c r="D73" s="19">
         <f>D52</f>
-        <v>136581.97064325013</v>
+        <v>127934.59273890243</v>
       </c>
       <c r="F73" s="7"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="64"/>
+      <c r="J73" s="64"/>
+      <c r="K73" s="64"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -2389,29 +2388,29 @@
       </c>
       <c r="C74" s="13">
         <f>SUM(C72:C73)</f>
-        <v>473541.08684999996</v>
+        <v>462434.14866130432</v>
       </c>
       <c r="D74" s="13">
         <f>SUM(D72:D73)</f>
-        <v>521930.39459325012</v>
+        <v>513283.01668890245</v>
       </c>
       <c r="F74" s="7"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="66"/>
-      <c r="I74" s="66"/>
-      <c r="J74" s="66"/>
-      <c r="K74" s="66"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="64"/>
+      <c r="K74" s="64"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
       <c r="F75" s="21"/>
-      <c r="G75" s="66"/>
-      <c r="H75" s="66"/>
-      <c r="I75" s="66"/>
-      <c r="J75" s="66"/>
-      <c r="K75" s="66"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="64"/>
+      <c r="J75" s="64"/>
+      <c r="K75" s="64"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -2421,31 +2420,31 @@
         <v>494177</v>
       </c>
       <c r="C76" s="19">
-        <v>200699.85383106355</v>
+        <v>425990.70434782642</v>
       </c>
       <c r="D76" s="19">
-        <v>-90861.402768142361</v>
+        <v>178545.81319253313</v>
       </c>
       <c r="F76" s="21"/>
-      <c r="G76" s="67">
+      <c r="G76" s="65">
         <f>AVERAGE(B76:D76)</f>
-        <v>201338.48368764037</v>
-      </c>
-      <c r="H76" s="68">
+        <v>366237.83918011986</v>
+      </c>
+      <c r="H76" s="66">
         <f>G76/G82</f>
-        <v>0.14167015637467809</v>
-      </c>
-      <c r="I76" s="68">
+        <v>0.23412194360523808</v>
+      </c>
+      <c r="I76" s="66">
         <f>K88</f>
         <v>0.08</v>
       </c>
-      <c r="J76" s="69">
+      <c r="J76" s="67">
         <f>I76*(1-K89)</f>
         <v>5.96E-2</v>
       </c>
-      <c r="K76" s="68">
+      <c r="K76" s="66">
         <f>H76*J76</f>
-        <v>8.4435413199308133E-3</v>
+        <v>1.395366783887219E-2</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2457,29 +2456,29 @@
       </c>
       <c r="C77" s="13">
         <f>C74+C76</f>
-        <v>674240.94068106357</v>
+        <v>888424.85300913081</v>
       </c>
       <c r="D77" s="13">
         <f>D74+D76</f>
-        <v>431068.99182510778</v>
+        <v>691828.82988143561</v>
       </c>
       <c r="F77" s="21"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="71"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="69"/>
+      <c r="K77" s="69"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="66"/>
-      <c r="H78" s="66"/>
-      <c r="I78" s="66"/>
-      <c r="J78" s="66"/>
-      <c r="K78" s="71"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="64"/>
+      <c r="K78" s="69"/>
     </row>
     <row r="79" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -2488,20 +2487,20 @@
       <c r="B79" s="4">
         <v>400000</v>
       </c>
-      <c r="C79" s="31">
+      <c r="C79" s="30">
         <f>B79</f>
         <v>400000</v>
       </c>
-      <c r="D79" s="31">
+      <c r="D79" s="30">
         <f>C79</f>
         <v>400000</v>
       </c>
       <c r="F79" s="21"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="66"/>
-      <c r="K79" s="71"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="64"/>
+      <c r="J79" s="64"/>
+      <c r="K79" s="69"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -2512,18 +2511,18 @@
       </c>
       <c r="C80" s="19">
         <f>B80+C53</f>
-        <v>789818.24484351487</v>
+        <v>773424.55099086941</v>
       </c>
       <c r="D80" s="19">
         <f>C80+D53</f>
-        <v>1196120.7575717166</v>
+        <v>1147194.2435025647</v>
       </c>
       <c r="F80" s="21"/>
-      <c r="G80" s="66"/>
-      <c r="H80" s="66"/>
-      <c r="I80" s="66"/>
-      <c r="J80" s="66"/>
-      <c r="K80" s="71"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="64"/>
+      <c r="K80" s="69"/>
     </row>
     <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -2534,32 +2533,32 @@
       </c>
       <c r="C81" s="13">
         <f>C79+C80</f>
-        <v>1189818.2448435149</v>
+        <v>1173424.5509908693</v>
       </c>
       <c r="D81" s="13">
         <f>D79+D80</f>
-        <v>1596120.7575717166</v>
+        <v>1547194.2435025647</v>
       </c>
       <c r="F81" s="21"/>
-      <c r="G81" s="72">
+      <c r="G81" s="70">
         <f>AVERAGE(B81:D81)</f>
-        <v>1219839.3341384104</v>
-      </c>
-      <c r="H81" s="73">
+        <v>1198065.9314978113</v>
+      </c>
+      <c r="H81" s="71">
         <f>G81/G82</f>
-        <v>0.85832984362532194</v>
-      </c>
-      <c r="I81" s="74">
+        <v>0.76587805639476192</v>
+      </c>
+      <c r="I81" s="72">
         <f>H89</f>
         <v>0.13499999999999998</v>
       </c>
-      <c r="J81" s="74">
+      <c r="J81" s="72">
         <f>I81</f>
         <v>0.13499999999999998</v>
       </c>
-      <c r="K81" s="75">
+      <c r="K81" s="73">
         <f>H81*J81</f>
-        <v>0.11587452888941845</v>
+        <v>0.10339353761329284</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2567,19 +2566,19 @@
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="67">
+      <c r="G82" s="65">
         <f>SUM(G76:G81)</f>
-        <v>1421177.8178260508</v>
-      </c>
-      <c r="H82" s="76">
+        <v>1564303.7706779311</v>
+      </c>
+      <c r="H82" s="74">
         <f>SUM(H76:H81)</f>
         <v>1</v>
       </c>
-      <c r="I82" s="77"/>
-      <c r="J82" s="77"/>
-      <c r="K82" s="76">
+      <c r="I82" s="75"/>
+      <c r="J82" s="75"/>
+      <c r="K82" s="74">
         <f>K81+K76</f>
-        <v>0.12431807020934926</v>
+        <v>0.11734720545216504</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2589,31 +2588,31 @@
       <c r="B83" s="6">
         <v>1783987</v>
       </c>
-      <c r="C83" s="32">
+      <c r="C83" s="31">
         <f>C77+C81</f>
-        <v>1864059.1855245784</v>
-      </c>
-      <c r="D83" s="32">
+        <v>2061849.4040000001</v>
+      </c>
+      <c r="D83" s="31">
         <f>D77+D81</f>
-        <v>2027189.7493968243</v>
+        <v>2239023.0733840005</v>
       </c>
       <c r="F83" s="21"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="54"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="53"/>
+      <c r="I83" s="53"/>
+      <c r="J83" s="53"/>
+      <c r="K83" s="53"/>
     </row>
     <row r="84" spans="1:11" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
       <c r="C84" s="23"/>
       <c r="D84" s="23"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="54"/>
-      <c r="J84" s="54"/>
-      <c r="K84" s="54"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="53"/>
+      <c r="K84" s="53"/>
     </row>
     <row r="85" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -2624,42 +2623,42 @@
         <v>0</v>
       </c>
       <c r="C85" s="4">
-        <f t="shared" ref="C85:D85" si="17">C69-C83</f>
+        <f t="shared" ref="C85:D85" si="16">C69-C83</f>
         <v>0</v>
       </c>
       <c r="D85" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F85" s="21"/>
-      <c r="G85" s="66" t="s">
+      <c r="G85" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H85" s="78">
+      <c r="H85" s="76">
         <f>G76</f>
-        <v>201338.48368764037</v>
-      </c>
-      <c r="I85" s="54"/>
-      <c r="J85" s="54"/>
-      <c r="K85" s="54"/>
+        <v>366237.83918011986</v>
+      </c>
+      <c r="I85" s="53"/>
+      <c r="J85" s="53"/>
+      <c r="K85" s="53"/>
     </row>
     <row r="86" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="F86" s="21"/>
-      <c r="G86" s="66" t="s">
+      <c r="G86" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="H86" s="67">
+      <c r="H86" s="65">
         <f>G81</f>
-        <v>1219839.3341384104</v>
-      </c>
-      <c r="I86" s="54"/>
-      <c r="J86" s="54" t="s">
+        <v>1198065.9314978113</v>
+      </c>
+      <c r="I86" s="53"/>
+      <c r="J86" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K86" s="81">
+      <c r="K86" s="79">
         <v>0.02</v>
       </c>
     </row>
@@ -2677,17 +2676,17 @@
         <v>47</v>
       </c>
       <c r="F87" s="21"/>
-      <c r="G87" s="66" t="s">
+      <c r="G87" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="H87" s="79">
+      <c r="H87" s="77">
         <v>1.1499999999999999</v>
       </c>
-      <c r="I87" s="54"/>
-      <c r="J87" s="54" t="s">
+      <c r="I87" s="53"/>
+      <c r="J87" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="K87" s="82">
+      <c r="K87" s="80">
         <v>0.12</v>
       </c>
     </row>
@@ -2695,31 +2694,31 @@
       <c r="A88" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="60">
+      <c r="B88" s="59">
         <f>B40</f>
         <v>0.41375051461506795</v>
       </c>
-      <c r="C88" s="60">
-        <f t="shared" ref="C88:D88" si="18">C40</f>
+      <c r="C88" s="59">
+        <f t="shared" ref="C88:D88" si="17">C40</f>
         <v>0.41375051461506795</v>
       </c>
-      <c r="D88" s="60">
-        <f t="shared" si="18"/>
+      <c r="D88" s="59">
+        <f t="shared" si="17"/>
         <v>0.41375051461506795</v>
       </c>
-      <c r="F88" s="53"/>
-      <c r="G88" s="66" t="s">
+      <c r="F88" s="52"/>
+      <c r="G88" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="H88" s="80">
+      <c r="H88" s="78">
         <f>K87-K86</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="I88" s="54"/>
-      <c r="J88" s="54" t="s">
+      <c r="I88" s="53"/>
+      <c r="J88" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="K88" s="80">
+      <c r="K88" s="78">
         <v>0.08</v>
       </c>
     </row>
@@ -2727,31 +2726,31 @@
       <c r="A89" t="s">
         <v>68</v>
       </c>
-      <c r="B89" s="61">
+      <c r="B89" s="60">
         <f>B63-B74</f>
         <v>1049686</v>
       </c>
-      <c r="C89" s="61">
-        <f t="shared" ref="C89:D89" si="19">C63-C74</f>
-        <v>909903.09867457894</v>
-      </c>
-      <c r="D89" s="61">
-        <f t="shared" si="19"/>
-        <v>972099.35480357392</v>
-      </c>
-      <c r="F89" s="53"/>
-      <c r="G89" s="66" t="s">
+      <c r="C89" s="60">
+        <f t="shared" ref="C89:D89" si="18">C63-C74</f>
+        <v>1118800.2553386958</v>
+      </c>
+      <c r="D89" s="60">
+        <f t="shared" si="18"/>
+        <v>1192580.0566950978</v>
+      </c>
+      <c r="F89" s="52"/>
+      <c r="G89" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="H89" s="80">
+      <c r="H89" s="78">
         <f>K86+(H88*H87)</f>
         <v>0.13499999999999998</v>
       </c>
-      <c r="I89" s="54"/>
-      <c r="J89" s="54" t="s">
+      <c r="I89" s="53"/>
+      <c r="J89" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="K89" s="69">
+      <c r="K89" s="67">
         <v>0.255</v>
       </c>
     </row>
@@ -2764,88 +2763,105 @@
         <v>3.5218832811587797</v>
       </c>
       <c r="C90" s="62">
-        <f t="shared" ref="C90:D90" si="20">C63/C74</f>
-        <v>2.9214871189472986</v>
+        <f t="shared" ref="C90:D90" si="19">C63/C74</f>
+        <v>3.4193720523830229</v>
       </c>
       <c r="D90" s="62">
-        <f t="shared" si="20"/>
-        <v>2.8625076540352641</v>
-      </c>
-      <c r="F90" s="53"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="54"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="54"/>
+        <f t="shared" si="19"/>
+        <v>3.3234356445070397</v>
+      </c>
+      <c r="F90" s="52"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="53"/>
+      <c r="I90" s="53"/>
+      <c r="J90" s="53"/>
+      <c r="K90" s="53"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>65</v>
       </c>
-      <c r="B91" s="64">
+      <c r="B91" s="81">
         <f>B53/B81</f>
         <v>0.29646889405537452</v>
       </c>
-      <c r="C91" s="64">
-        <f t="shared" ref="C91:D91" si="21">C53/C81</f>
-        <v>0.26578785979627229</v>
-      </c>
-      <c r="D91" s="64">
-        <f t="shared" si="21"/>
-        <v>0.25455624883065642</v>
-      </c>
-      <c r="F91" s="53"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="54"/>
+      <c r="C91" s="81">
+        <f t="shared" ref="C91:D91" si="20">C53/C81</f>
+        <v>0.2555303199832254</v>
+      </c>
+      <c r="D91" s="81">
+        <f t="shared" si="20"/>
+        <v>0.24157903513494797</v>
+      </c>
+      <c r="F91" s="52"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="53"/>
+      <c r="I91" s="53"/>
+      <c r="J91" s="53"/>
+      <c r="K91" s="53"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>66</v>
       </c>
-      <c r="B92" s="64">
+      <c r="B92" s="81">
         <f>B53/B69</f>
         <v>0.14517426416223886</v>
       </c>
-      <c r="C92" s="64">
-        <f t="shared" ref="C92:D92" si="22">C53/C69</f>
-        <v>0.16965086049803704</v>
-      </c>
-      <c r="D92" s="64">
-        <f t="shared" si="22"/>
-        <v>0.20042648343555117</v>
-      </c>
-      <c r="F92" s="53"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="54"/>
-      <c r="I92" s="54"/>
-      <c r="J92" s="54"/>
-      <c r="K92" s="54"/>
+      <c r="C92" s="81">
+        <f t="shared" ref="C92:D92" si="21">C53/C69</f>
+        <v>0.14542553418749557</v>
+      </c>
+      <c r="D92" s="81">
+        <f t="shared" si="21"/>
+        <v>0.16693427457484381</v>
+      </c>
+      <c r="F92" s="52"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="53"/>
+      <c r="I92" s="53"/>
+      <c r="J92" s="53"/>
+      <c r="K92" s="53"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>67</v>
       </c>
-      <c r="B93" s="63">
+      <c r="B93" s="61">
         <f>B76/B81</f>
         <v>0.56569239874127009</v>
       </c>
-      <c r="C93" s="63">
-        <f t="shared" ref="C93:D93" si="23">C76/C81</f>
-        <v>0.16868110293388519</v>
-      </c>
-      <c r="D93" s="63">
+      <c r="C93" s="61">
+        <f t="shared" ref="C93:D93" si="22">C76/C81</f>
+        <v>0.36303203643396514</v>
+      </c>
+      <c r="D93" s="61">
+        <f t="shared" si="22"/>
+        <v>0.11539973984671638</v>
+      </c>
+      <c r="F93" s="52"/>
+      <c r="G93" s="53"/>
+      <c r="H93" s="53"/>
+      <c r="I93" s="53"/>
+      <c r="J93" s="53"/>
+      <c r="K93" s="53"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" s="61">
+        <f>B69/B81</f>
+        <v>2.042158751526765</v>
+      </c>
+      <c r="C94" s="61">
+        <f t="shared" ref="C94:D94" si="23">C69/C81</f>
+        <v>1.7571214120745322</v>
+      </c>
+      <c r="D94" s="61">
         <f t="shared" si="23"/>
-        <v>-5.6926396287443684E-2</v>
-      </c>
-      <c r="F93" s="53"/>
-      <c r="G93" s="54"/>
-      <c r="H93" s="54"/>
-      <c r="I93" s="54"/>
-      <c r="J93" s="54"/>
-      <c r="K93" s="54"/>
+        <v>1.4471505971449721</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2859,8 +2875,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,161 +2888,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="49">
+      <c r="B1" s="48">
         <v>0</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="48">
         <v>1</v>
       </c>
-      <c r="D1" s="49">
+      <c r="D1" s="48">
         <v>2</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="48">
         <v>3</v>
       </c>
-      <c r="F1" s="48">
+      <c r="F1" s="47">
         <v>4</v>
       </c>
-      <c r="G1" s="48">
+      <c r="G1" s="47">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="42">
         <v>-1200000</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="I2" s="51"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="43">
+      <c r="B3" s="37"/>
+      <c r="C3" s="42">
         <v>200000</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="42">
         <v>210000</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="42">
         <v>250000</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="46">
         <v>300000</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="46">
         <v>350000</v>
       </c>
-      <c r="I3" s="52"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="44">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="43">
         <v>650000</v>
       </c>
-      <c r="I4" s="51"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="42">
         <f t="shared" ref="B5:G5" si="0">SUM(B2:B4)</f>
         <v>-1200000</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="42">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="42">
         <f t="shared" si="0"/>
         <v>210000</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="42">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="42">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="42">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="I5" s="52"/>
+      <c r="I5" s="51"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="I6" s="52"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="I6" s="51"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="41">
-        <v>0.15</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="I7" s="52"/>
+      <c r="B7" s="40">
+        <v>0.13</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="I7" s="51"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="39">
         <f>IRR(B5:G5)</f>
         <v>0.14073151090787661</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="I8" s="52"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="I8" s="51"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="49">
         <f>NPV(B7,C5:G5)+B2</f>
-        <v>-34215.019305216847</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="I9" s="52"/>
+        <v>41470.048823660705</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="I9" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
